--- a/Data/RawData/YPE_Data/YPE_55_SmithMeadow/Digital Data_YPE55/YPE_Treedata_Plot_55.xlsx
+++ b/Data/RawData/YPE_Data/YPE_55_SmithMeadow/Digital Data_YPE55/YPE_Treedata_Plot_55.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5xYR7n8sr/4JWago/gL8/fRLkFteACNUY41+FRarMr0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ZZ+ZXeStRxNKbTVCAPoBRKMUIxcoUgfWVXPsjv7b5kM="/>
     </ext>
   </extLst>
 </workbook>
@@ -492,7 +492,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>45150.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -536,7 +536,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3">
-        <v>45151.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>45152.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>45153.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3">
-        <v>45154.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -712,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>45155.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>45156.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3">
-        <v>45157.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -844,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>45158.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -888,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="3">
-        <v>45159.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -932,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="3">
-        <v>45160.0</v>
+        <v>45149.0</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
